--- a/conf/TEMPLATE - SIPP Unquoted shares acquired from an arm's length party.xlsx
+++ b/conf/TEMPLATE - SIPP Unquoted shares acquired from an arm's length party.xlsx
@@ -1,53 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolgahmrc/Projects/pension-scheme-return-sipp-frontend/conf/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1F1955-5A0C-2C43-90CA-51E5BED27D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Unquoted shares" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Unquoted shares" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="vB/O6QMOAn7l5XB94G5fU8gR3Jl6HkkZaKWF81b9so8="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">The questions in this section relate to unquoted shares acquired from an arm's length party. 
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <b val="0"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Questions that are mandatory are stated in row 2. Notes and hint text is underneath each question to help make sure that there are no errors in the template file upload.
+      <t xml:space="preserve">Questions that are mandatory are stated in row 2.
+Notes and hint text is underneath each question to help make sure that there are no errors in the template file upload.
 You must tell us about all unquoted shares held or that were outstanding at any point during the period of this return. 
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">
 What you need to do
@@ -55,28 +53,41 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <b val="0"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="12.0"/>
       </rPr>
-      <t>Enter your data from row 3 onwards.</t>
+      <t>Enter your data from row 3 onwards. Do not remove any columns.
+For all mandatory questions that don’t apply, please leave blank</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <b val="0"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <b val="0"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="12.0"/>
       </rPr>
-      <t xml:space="preserve">Each row of the file corresponds to one asset of the scheme. Complete all of the relevant columns for each member. 
+      <t xml:space="preserve">Each row of the file corresponds to one asset of the scheme. Complete all of the relevant columns for each member. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -94,9 +105,6 @@
   </si>
   <si>
     <t>If no National Insurance number for member, give reason</t>
-  </si>
-  <si>
-    <t>How many share transactions were made during the tax year and not reported in a previous return for this member?</t>
   </si>
   <si>
     <t>What is the name of the company to which the shares relate?</t>
@@ -125,32 +133,29 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="12.0"/>
       </rPr>
       <t>What was the total amount of dividends or other</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
         <strike/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="12.0"/>
       </rPr>
       <t>income received during the year?</t>
     </r>
@@ -179,20 +184,21 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri, Arial"/>
         <b/>
         <i/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">Question help information. </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri, Arial"/>
+        <b val="0"/>
         <i/>
-        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">The information in this row will give you hints or tips to help you to complete the required questions in the cells above. </t>
     </r>
@@ -205,7 +211,7 @@
 Mandatory question. </t>
   </si>
   <si>
-    <t xml:space="preserve">Use the format DD-MM-YYYY.
+    <t xml:space="preserve">Use the format DD/MM/YYYY.
 Mandatory question. </t>
   </si>
   <si>
@@ -217,12 +223,6 @@
   <si>
     <t>Enter reason for not having the members National Insurance number.
 Maximum of 160 characters.</t>
-  </si>
-  <si>
-    <t>Enter number of transactions made using characters of 0-9.
-If no share transactions have taken place within the tax year, you do not need to complete any further questions in the Unquoted shares acquired from an arm's length party section.
-For members that have multiple shares transactions, complete one row per share and repeat the members first name, last name and date of birth for the required number of rows.
-Mandatory question</t>
   </si>
   <si>
     <t>Min 1 character - Max 160 characters.
@@ -279,98 +279,64 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri, Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri, Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri, Arial"/>
-    </font>
-    <font>
-      <b/>
-      <strike/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri, Arial"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri, Arial"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -379,37 +345,29 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -419,58 +377,73 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+  <cellXfs count="17">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -660,34 +633,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="60.5"/>
+    <col customWidth="1" min="2" max="2" width="13.88"/>
+    <col customWidth="1" min="3" max="3" width="12.63"/>
+    <col customWidth="1" min="4" max="4" width="11.25"/>
+    <col customWidth="1" min="5" max="5" width="17.38"/>
+    <col customWidth="1" min="6" max="6" width="12.63"/>
+    <col customWidth="1" min="7" max="7" width="18.5"/>
+    <col customWidth="1" min="12" max="12" width="21.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,16 +666,16 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -724,7 +693,7 @@
       <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -733,10 +702,10 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -748,90 +717,6690 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="8"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7"/>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>40</v>
+      <c r="V2" s="10" t="s">
+        <v>39</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="7"/>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="8"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="8"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="8"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="8"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="8"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="8"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="8"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="8"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="8"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="8"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="8"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="8"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="8"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="8"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="8"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="8"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="8"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="8"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="8"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="8"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="8"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="8"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="8"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="8"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="8"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="8"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="8"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="8"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="8"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="8"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="8"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="8"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="8"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="8"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="8"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="8"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="8"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="8"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="8"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="8"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="8"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="8"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="8"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="8"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="8"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="8"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="8"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="8"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="14"/>
+      <c r="N112" s="8"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="14"/>
+      <c r="N113" s="8"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="14"/>
+      <c r="N114" s="8"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="14"/>
+      <c r="N115" s="8"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="14"/>
+      <c r="N116" s="8"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="14"/>
+      <c r="N117" s="8"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="14"/>
+      <c r="N118" s="8"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="14"/>
+      <c r="N119" s="8"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="8"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="14"/>
+      <c r="N121" s="8"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="8"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="14"/>
+      <c r="N123" s="8"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="14"/>
+      <c r="N124" s="8"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="8"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="14"/>
+      <c r="N126" s="8"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="14"/>
+      <c r="N127" s="8"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="8"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="8"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="8"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="8"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="14"/>
+      <c r="N132" s="8"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="14"/>
+      <c r="N133" s="8"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="14"/>
+      <c r="N134" s="8"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="14"/>
+      <c r="N135" s="8"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="8"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="8"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="8"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="8"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="8"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="14"/>
+      <c r="N141" s="8"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="14"/>
+      <c r="N142" s="8"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="8"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="14"/>
+      <c r="N144" s="8"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="14"/>
+      <c r="N145" s="8"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="14"/>
+      <c r="N146" s="8"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="14"/>
+      <c r="N147" s="8"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="14"/>
+      <c r="N148" s="8"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="14"/>
+      <c r="N149" s="8"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="14"/>
+      <c r="N150" s="8"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="14"/>
+      <c r="N151" s="8"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="14"/>
+      <c r="N152" s="8"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="14"/>
+      <c r="N153" s="8"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="14"/>
+      <c r="N154" s="8"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="14"/>
+      <c r="N155" s="8"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="8"/>
+      <c r="L156" s="8"/>
+      <c r="M156" s="14"/>
+      <c r="N156" s="8"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
+      <c r="L157" s="8"/>
+      <c r="M157" s="14"/>
+      <c r="N157" s="8"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="14"/>
+      <c r="N158" s="8"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="14"/>
+      <c r="N159" s="8"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="8"/>
+      <c r="M160" s="14"/>
+      <c r="N160" s="8"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="14"/>
+      <c r="N161" s="8"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="8"/>
+      <c r="M162" s="14"/>
+      <c r="N162" s="8"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="14"/>
+      <c r="N163" s="8"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="8"/>
+      <c r="M164" s="14"/>
+      <c r="N164" s="8"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
+      <c r="L165" s="8"/>
+      <c r="M165" s="14"/>
+      <c r="N165" s="8"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="8"/>
+      <c r="M166" s="14"/>
+      <c r="N166" s="8"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="8"/>
+      <c r="M167" s="14"/>
+      <c r="N167" s="8"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
+      <c r="L168" s="8"/>
+      <c r="M168" s="14"/>
+      <c r="N168" s="8"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="8"/>
+      <c r="L169" s="8"/>
+      <c r="M169" s="14"/>
+      <c r="N169" s="8"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="8"/>
+      <c r="L170" s="8"/>
+      <c r="M170" s="14"/>
+      <c r="N170" s="8"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="8"/>
+      <c r="M171" s="14"/>
+      <c r="N171" s="8"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
+      <c r="J172" s="8"/>
+      <c r="K172" s="8"/>
+      <c r="L172" s="8"/>
+      <c r="M172" s="14"/>
+      <c r="N172" s="8"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="8"/>
+      <c r="J173" s="8"/>
+      <c r="K173" s="8"/>
+      <c r="L173" s="8"/>
+      <c r="M173" s="14"/>
+      <c r="N173" s="8"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
+      <c r="K174" s="8"/>
+      <c r="L174" s="8"/>
+      <c r="M174" s="14"/>
+      <c r="N174" s="8"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
+      <c r="L175" s="8"/>
+      <c r="M175" s="14"/>
+      <c r="N175" s="8"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="8"/>
+      <c r="K176" s="8"/>
+      <c r="L176" s="8"/>
+      <c r="M176" s="14"/>
+      <c r="N176" s="8"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="8"/>
+      <c r="J177" s="8"/>
+      <c r="K177" s="8"/>
+      <c r="L177" s="8"/>
+      <c r="M177" s="14"/>
+      <c r="N177" s="8"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
+      <c r="I178" s="8"/>
+      <c r="J178" s="8"/>
+      <c r="K178" s="8"/>
+      <c r="L178" s="8"/>
+      <c r="M178" s="14"/>
+      <c r="N178" s="8"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8"/>
+      <c r="K179" s="8"/>
+      <c r="L179" s="8"/>
+      <c r="M179" s="14"/>
+      <c r="N179" s="8"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="8"/>
+      <c r="J180" s="8"/>
+      <c r="K180" s="8"/>
+      <c r="L180" s="8"/>
+      <c r="M180" s="14"/>
+      <c r="N180" s="8"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="8"/>
+      <c r="L181" s="8"/>
+      <c r="M181" s="14"/>
+      <c r="N181" s="8"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8"/>
+      <c r="K182" s="8"/>
+      <c r="L182" s="8"/>
+      <c r="M182" s="14"/>
+      <c r="N182" s="8"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="8"/>
+      <c r="J183" s="8"/>
+      <c r="K183" s="8"/>
+      <c r="L183" s="8"/>
+      <c r="M183" s="14"/>
+      <c r="N183" s="8"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+      <c r="J184" s="8"/>
+      <c r="K184" s="8"/>
+      <c r="L184" s="8"/>
+      <c r="M184" s="14"/>
+      <c r="N184" s="8"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
+      <c r="J185" s="8"/>
+      <c r="K185" s="8"/>
+      <c r="L185" s="8"/>
+      <c r="M185" s="14"/>
+      <c r="N185" s="8"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8"/>
+      <c r="K186" s="8"/>
+      <c r="L186" s="8"/>
+      <c r="M186" s="14"/>
+      <c r="N186" s="8"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="8"/>
+      <c r="J187" s="8"/>
+      <c r="K187" s="8"/>
+      <c r="L187" s="8"/>
+      <c r="M187" s="14"/>
+      <c r="N187" s="8"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
+      <c r="L188" s="8"/>
+      <c r="M188" s="14"/>
+      <c r="N188" s="8"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="8"/>
+      <c r="I189" s="8"/>
+      <c r="J189" s="8"/>
+      <c r="K189" s="8"/>
+      <c r="L189" s="8"/>
+      <c r="M189" s="14"/>
+      <c r="N189" s="8"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="8"/>
+      <c r="J190" s="8"/>
+      <c r="K190" s="8"/>
+      <c r="L190" s="8"/>
+      <c r="M190" s="14"/>
+      <c r="N190" s="8"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8"/>
+      <c r="I191" s="8"/>
+      <c r="J191" s="8"/>
+      <c r="K191" s="8"/>
+      <c r="L191" s="8"/>
+      <c r="M191" s="14"/>
+      <c r="N191" s="8"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
+      <c r="J192" s="8"/>
+      <c r="K192" s="8"/>
+      <c r="L192" s="8"/>
+      <c r="M192" s="14"/>
+      <c r="N192" s="8"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
+      <c r="J193" s="8"/>
+      <c r="K193" s="8"/>
+      <c r="L193" s="8"/>
+      <c r="M193" s="14"/>
+      <c r="N193" s="8"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+      <c r="H194" s="8"/>
+      <c r="I194" s="8"/>
+      <c r="J194" s="8"/>
+      <c r="K194" s="8"/>
+      <c r="L194" s="8"/>
+      <c r="M194" s="14"/>
+      <c r="N194" s="8"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+      <c r="H195" s="8"/>
+      <c r="I195" s="8"/>
+      <c r="J195" s="8"/>
+      <c r="K195" s="8"/>
+      <c r="L195" s="8"/>
+      <c r="M195" s="14"/>
+      <c r="N195" s="8"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+      <c r="H196" s="8"/>
+      <c r="I196" s="8"/>
+      <c r="J196" s="8"/>
+      <c r="K196" s="8"/>
+      <c r="L196" s="8"/>
+      <c r="M196" s="14"/>
+      <c r="N196" s="8"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="8"/>
+      <c r="I197" s="8"/>
+      <c r="J197" s="8"/>
+      <c r="K197" s="8"/>
+      <c r="L197" s="8"/>
+      <c r="M197" s="14"/>
+      <c r="N197" s="8"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+      <c r="H198" s="8"/>
+      <c r="I198" s="8"/>
+      <c r="J198" s="8"/>
+      <c r="K198" s="8"/>
+      <c r="L198" s="8"/>
+      <c r="M198" s="14"/>
+      <c r="N198" s="8"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="8"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="8"/>
+      <c r="H199" s="8"/>
+      <c r="I199" s="8"/>
+      <c r="J199" s="8"/>
+      <c r="K199" s="8"/>
+      <c r="L199" s="8"/>
+      <c r="M199" s="14"/>
+      <c r="N199" s="8"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
+      <c r="H200" s="8"/>
+      <c r="I200" s="8"/>
+      <c r="J200" s="8"/>
+      <c r="K200" s="8"/>
+      <c r="L200" s="8"/>
+      <c r="M200" s="14"/>
+      <c r="N200" s="8"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="8"/>
+      <c r="I201" s="8"/>
+      <c r="J201" s="8"/>
+      <c r="K201" s="8"/>
+      <c r="L201" s="8"/>
+      <c r="M201" s="14"/>
+      <c r="N201" s="8"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
+      <c r="H202" s="8"/>
+      <c r="I202" s="8"/>
+      <c r="J202" s="8"/>
+      <c r="K202" s="8"/>
+      <c r="L202" s="8"/>
+      <c r="M202" s="14"/>
+      <c r="N202" s="8"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+      <c r="H203" s="8"/>
+      <c r="I203" s="8"/>
+      <c r="J203" s="8"/>
+      <c r="K203" s="8"/>
+      <c r="L203" s="8"/>
+      <c r="M203" s="14"/>
+      <c r="N203" s="8"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
+      <c r="H204" s="8"/>
+      <c r="I204" s="8"/>
+      <c r="J204" s="8"/>
+      <c r="K204" s="8"/>
+      <c r="L204" s="8"/>
+      <c r="M204" s="14"/>
+      <c r="N204" s="8"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="8"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
+      <c r="H205" s="8"/>
+      <c r="I205" s="8"/>
+      <c r="J205" s="8"/>
+      <c r="K205" s="8"/>
+      <c r="L205" s="8"/>
+      <c r="M205" s="14"/>
+      <c r="N205" s="8"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
+      <c r="H206" s="8"/>
+      <c r="I206" s="8"/>
+      <c r="J206" s="8"/>
+      <c r="K206" s="8"/>
+      <c r="L206" s="8"/>
+      <c r="M206" s="14"/>
+      <c r="N206" s="8"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="8"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="8"/>
+      <c r="H207" s="8"/>
+      <c r="I207" s="8"/>
+      <c r="J207" s="8"/>
+      <c r="K207" s="8"/>
+      <c r="L207" s="8"/>
+      <c r="M207" s="14"/>
+      <c r="N207" s="8"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="8"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+      <c r="H208" s="8"/>
+      <c r="I208" s="8"/>
+      <c r="J208" s="8"/>
+      <c r="K208" s="8"/>
+      <c r="L208" s="8"/>
+      <c r="M208" s="14"/>
+      <c r="N208" s="8"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="8"/>
+      <c r="I209" s="8"/>
+      <c r="J209" s="8"/>
+      <c r="K209" s="8"/>
+      <c r="L209" s="8"/>
+      <c r="M209" s="14"/>
+      <c r="N209" s="8"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="8"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
+      <c r="H210" s="8"/>
+      <c r="I210" s="8"/>
+      <c r="J210" s="8"/>
+      <c r="K210" s="8"/>
+      <c r="L210" s="8"/>
+      <c r="M210" s="14"/>
+      <c r="N210" s="8"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="8"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
+      <c r="H211" s="8"/>
+      <c r="I211" s="8"/>
+      <c r="J211" s="8"/>
+      <c r="K211" s="8"/>
+      <c r="L211" s="8"/>
+      <c r="M211" s="14"/>
+      <c r="N211" s="8"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="8"/>
+      <c r="F212" s="8"/>
+      <c r="G212" s="8"/>
+      <c r="H212" s="8"/>
+      <c r="I212" s="8"/>
+      <c r="J212" s="8"/>
+      <c r="K212" s="8"/>
+      <c r="L212" s="8"/>
+      <c r="M212" s="14"/>
+      <c r="N212" s="8"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="8"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
+      <c r="H213" s="8"/>
+      <c r="I213" s="8"/>
+      <c r="J213" s="8"/>
+      <c r="K213" s="8"/>
+      <c r="L213" s="8"/>
+      <c r="M213" s="14"/>
+      <c r="N213" s="8"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="8"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="8"/>
+      <c r="H214" s="8"/>
+      <c r="I214" s="8"/>
+      <c r="J214" s="8"/>
+      <c r="K214" s="8"/>
+      <c r="L214" s="8"/>
+      <c r="M214" s="14"/>
+      <c r="N214" s="8"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8"/>
+      <c r="H215" s="8"/>
+      <c r="I215" s="8"/>
+      <c r="J215" s="8"/>
+      <c r="K215" s="8"/>
+      <c r="L215" s="8"/>
+      <c r="M215" s="14"/>
+      <c r="N215" s="8"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
+      <c r="J216" s="8"/>
+      <c r="K216" s="8"/>
+      <c r="L216" s="8"/>
+      <c r="M216" s="14"/>
+      <c r="N216" s="8"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="8"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
+      <c r="H217" s="8"/>
+      <c r="I217" s="8"/>
+      <c r="J217" s="8"/>
+      <c r="K217" s="8"/>
+      <c r="L217" s="8"/>
+      <c r="M217" s="14"/>
+      <c r="N217" s="8"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="8"/>
+      <c r="F218" s="8"/>
+      <c r="G218" s="8"/>
+      <c r="H218" s="8"/>
+      <c r="I218" s="8"/>
+      <c r="J218" s="8"/>
+      <c r="K218" s="8"/>
+      <c r="L218" s="8"/>
+      <c r="M218" s="14"/>
+      <c r="N218" s="8"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="13"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="8"/>
+      <c r="G219" s="8"/>
+      <c r="H219" s="8"/>
+      <c r="I219" s="8"/>
+      <c r="J219" s="8"/>
+      <c r="K219" s="8"/>
+      <c r="L219" s="8"/>
+      <c r="M219" s="14"/>
+      <c r="N219" s="8"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="13"/>
+      <c r="E220" s="8"/>
+      <c r="F220" s="8"/>
+      <c r="G220" s="8"/>
+      <c r="H220" s="8"/>
+      <c r="I220" s="8"/>
+      <c r="J220" s="8"/>
+      <c r="K220" s="8"/>
+      <c r="L220" s="8"/>
+      <c r="M220" s="14"/>
+      <c r="N220" s="8"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="D221" s="15"/>
+      <c r="M221" s="16"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="D222" s="15"/>
+      <c r="M222" s="16"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="D223" s="15"/>
+      <c r="M223" s="16"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="D224" s="15"/>
+      <c r="M224" s="16"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="D225" s="15"/>
+      <c r="M225" s="16"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="D226" s="15"/>
+      <c r="M226" s="16"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="D227" s="15"/>
+      <c r="M227" s="16"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="D228" s="15"/>
+      <c r="M228" s="16"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="D229" s="15"/>
+      <c r="M229" s="16"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="D230" s="15"/>
+      <c r="M230" s="16"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="D231" s="15"/>
+      <c r="M231" s="16"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="D232" s="15"/>
+      <c r="M232" s="16"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="D233" s="15"/>
+      <c r="M233" s="16"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="D234" s="15"/>
+      <c r="M234" s="16"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="D235" s="15"/>
+      <c r="M235" s="16"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="D236" s="15"/>
+      <c r="M236" s="16"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="D237" s="15"/>
+      <c r="M237" s="16"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="D238" s="15"/>
+      <c r="M238" s="16"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="D239" s="15"/>
+      <c r="M239" s="16"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="D240" s="15"/>
+      <c r="M240" s="16"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="D241" s="15"/>
+      <c r="M241" s="16"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="D242" s="15"/>
+      <c r="M242" s="16"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="D243" s="15"/>
+      <c r="M243" s="16"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="D244" s="15"/>
+      <c r="M244" s="16"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="D245" s="15"/>
+      <c r="M245" s="16"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="D246" s="15"/>
+      <c r="M246" s="16"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="D247" s="15"/>
+      <c r="M247" s="16"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="D248" s="15"/>
+      <c r="M248" s="16"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="D249" s="15"/>
+      <c r="M249" s="16"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="D250" s="15"/>
+      <c r="M250" s="16"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="D251" s="15"/>
+      <c r="M251" s="16"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="D252" s="15"/>
+      <c r="M252" s="16"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="D253" s="15"/>
+      <c r="M253" s="16"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="D254" s="15"/>
+      <c r="M254" s="16"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="D255" s="15"/>
+      <c r="M255" s="16"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="D256" s="15"/>
+      <c r="M256" s="16"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="D257" s="15"/>
+      <c r="M257" s="16"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="D258" s="15"/>
+      <c r="M258" s="16"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="D259" s="15"/>
+      <c r="M259" s="16"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="D260" s="15"/>
+      <c r="M260" s="16"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="D261" s="15"/>
+      <c r="M261" s="16"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="D262" s="15"/>
+      <c r="M262" s="16"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="D263" s="15"/>
+      <c r="M263" s="16"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="D264" s="15"/>
+      <c r="M264" s="16"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="D265" s="15"/>
+      <c r="M265" s="16"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="D266" s="15"/>
+      <c r="M266" s="16"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="D267" s="15"/>
+      <c r="M267" s="16"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="D268" s="15"/>
+      <c r="M268" s="16"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="D269" s="15"/>
+      <c r="M269" s="16"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="D270" s="15"/>
+      <c r="M270" s="16"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="D271" s="15"/>
+      <c r="M271" s="16"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="D272" s="15"/>
+      <c r="M272" s="16"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="D273" s="15"/>
+      <c r="M273" s="16"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="D274" s="15"/>
+      <c r="M274" s="16"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="D275" s="15"/>
+      <c r="M275" s="16"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="D276" s="15"/>
+      <c r="M276" s="16"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="D277" s="15"/>
+      <c r="M277" s="16"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="D278" s="15"/>
+      <c r="M278" s="16"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="D279" s="15"/>
+      <c r="M279" s="16"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="D280" s="15"/>
+      <c r="M280" s="16"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="D281" s="15"/>
+      <c r="M281" s="16"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="D282" s="15"/>
+      <c r="M282" s="16"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="D283" s="15"/>
+      <c r="M283" s="16"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="D284" s="15"/>
+      <c r="M284" s="16"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="D285" s="15"/>
+      <c r="M285" s="16"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="D286" s="15"/>
+      <c r="M286" s="16"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="D287" s="15"/>
+      <c r="M287" s="16"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="D288" s="15"/>
+      <c r="M288" s="16"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="D289" s="15"/>
+      <c r="M289" s="16"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="D290" s="15"/>
+      <c r="M290" s="16"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="D291" s="15"/>
+      <c r="M291" s="16"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="D292" s="15"/>
+      <c r="M292" s="16"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="D293" s="15"/>
+      <c r="M293" s="16"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="D294" s="15"/>
+      <c r="M294" s="16"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="D295" s="15"/>
+      <c r="M295" s="16"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="D296" s="15"/>
+      <c r="M296" s="16"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="D297" s="15"/>
+      <c r="M297" s="16"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="D298" s="15"/>
+      <c r="M298" s="16"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="D299" s="15"/>
+      <c r="M299" s="16"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="D300" s="15"/>
+      <c r="M300" s="16"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="D301" s="15"/>
+      <c r="M301" s="16"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="D302" s="15"/>
+      <c r="M302" s="16"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="D303" s="15"/>
+      <c r="M303" s="16"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="D304" s="15"/>
+      <c r="M304" s="16"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="D305" s="15"/>
+      <c r="M305" s="16"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="D306" s="15"/>
+      <c r="M306" s="16"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="D307" s="15"/>
+      <c r="M307" s="16"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="D308" s="15"/>
+      <c r="M308" s="16"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="D309" s="15"/>
+      <c r="M309" s="16"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="D310" s="15"/>
+      <c r="M310" s="16"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="D311" s="15"/>
+      <c r="M311" s="16"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="D312" s="15"/>
+      <c r="M312" s="16"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="D313" s="15"/>
+      <c r="M313" s="16"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="D314" s="15"/>
+      <c r="M314" s="16"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="D315" s="15"/>
+      <c r="M315" s="16"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="D316" s="15"/>
+      <c r="M316" s="16"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="D317" s="15"/>
+      <c r="M317" s="16"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="D318" s="15"/>
+      <c r="M318" s="16"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="D319" s="15"/>
+      <c r="M319" s="16"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="D320" s="15"/>
+      <c r="M320" s="16"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="D321" s="15"/>
+      <c r="M321" s="16"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="D322" s="15"/>
+      <c r="M322" s="16"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="D323" s="15"/>
+      <c r="M323" s="16"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="D324" s="15"/>
+      <c r="M324" s="16"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="D325" s="15"/>
+      <c r="M325" s="16"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="D326" s="15"/>
+      <c r="M326" s="16"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="D327" s="15"/>
+      <c r="M327" s="16"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="D328" s="15"/>
+      <c r="M328" s="16"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="D329" s="15"/>
+      <c r="M329" s="16"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="D330" s="15"/>
+      <c r="M330" s="16"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="D331" s="15"/>
+      <c r="M331" s="16"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="D332" s="15"/>
+      <c r="M332" s="16"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="D333" s="15"/>
+      <c r="M333" s="16"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="D334" s="15"/>
+      <c r="M334" s="16"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="D335" s="15"/>
+      <c r="M335" s="16"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="D336" s="15"/>
+      <c r="M336" s="16"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="D337" s="15"/>
+      <c r="M337" s="16"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="D338" s="15"/>
+      <c r="M338" s="16"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="D339" s="15"/>
+      <c r="M339" s="16"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="D340" s="15"/>
+      <c r="M340" s="16"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="D341" s="15"/>
+      <c r="M341" s="16"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="D342" s="15"/>
+      <c r="M342" s="16"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="D343" s="15"/>
+      <c r="M343" s="16"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="D344" s="15"/>
+      <c r="M344" s="16"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="D345" s="15"/>
+      <c r="M345" s="16"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="D346" s="15"/>
+      <c r="M346" s="16"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="D347" s="15"/>
+      <c r="M347" s="16"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="D348" s="15"/>
+      <c r="M348" s="16"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="D349" s="15"/>
+      <c r="M349" s="16"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="D350" s="15"/>
+      <c r="M350" s="16"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="D351" s="15"/>
+      <c r="M351" s="16"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="D352" s="15"/>
+      <c r="M352" s="16"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="D353" s="15"/>
+      <c r="M353" s="16"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="D354" s="15"/>
+      <c r="M354" s="16"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="D355" s="15"/>
+      <c r="M355" s="16"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="D356" s="15"/>
+      <c r="M356" s="16"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="D357" s="15"/>
+      <c r="M357" s="16"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="D358" s="15"/>
+      <c r="M358" s="16"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="D359" s="15"/>
+      <c r="M359" s="16"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="D360" s="15"/>
+      <c r="M360" s="16"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="D361" s="15"/>
+      <c r="M361" s="16"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="D362" s="15"/>
+      <c r="M362" s="16"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="D363" s="15"/>
+      <c r="M363" s="16"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="D364" s="15"/>
+      <c r="M364" s="16"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="D365" s="15"/>
+      <c r="M365" s="16"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="D366" s="15"/>
+      <c r="M366" s="16"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="D367" s="15"/>
+      <c r="M367" s="16"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="D368" s="15"/>
+      <c r="M368" s="16"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="D369" s="15"/>
+      <c r="M369" s="16"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="D370" s="15"/>
+      <c r="M370" s="16"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="D371" s="15"/>
+      <c r="M371" s="16"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="D372" s="15"/>
+      <c r="M372" s="16"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="D373" s="15"/>
+      <c r="M373" s="16"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="D374" s="15"/>
+      <c r="M374" s="16"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="D375" s="15"/>
+      <c r="M375" s="16"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="D376" s="15"/>
+      <c r="M376" s="16"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="D377" s="15"/>
+      <c r="M377" s="16"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="D378" s="15"/>
+      <c r="M378" s="16"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="D379" s="15"/>
+      <c r="M379" s="16"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="D380" s="15"/>
+      <c r="M380" s="16"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="D381" s="15"/>
+      <c r="M381" s="16"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="D382" s="15"/>
+      <c r="M382" s="16"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="D383" s="15"/>
+      <c r="M383" s="16"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="D384" s="15"/>
+      <c r="M384" s="16"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="D385" s="15"/>
+      <c r="M385" s="16"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="D386" s="15"/>
+      <c r="M386" s="16"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="D387" s="15"/>
+      <c r="M387" s="16"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="D388" s="15"/>
+      <c r="M388" s="16"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="D389" s="15"/>
+      <c r="M389" s="16"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="D390" s="15"/>
+      <c r="M390" s="16"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="D391" s="15"/>
+      <c r="M391" s="16"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="D392" s="15"/>
+      <c r="M392" s="16"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="D393" s="15"/>
+      <c r="M393" s="16"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="D394" s="15"/>
+      <c r="M394" s="16"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="D395" s="15"/>
+      <c r="M395" s="16"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="D396" s="15"/>
+      <c r="M396" s="16"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="D397" s="15"/>
+      <c r="M397" s="16"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="D398" s="15"/>
+      <c r="M398" s="16"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="D399" s="15"/>
+      <c r="M399" s="16"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="D400" s="15"/>
+      <c r="M400" s="16"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="D401" s="15"/>
+      <c r="M401" s="16"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="D402" s="15"/>
+      <c r="M402" s="16"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="D403" s="15"/>
+      <c r="M403" s="16"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="D404" s="15"/>
+      <c r="M404" s="16"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="D405" s="15"/>
+      <c r="M405" s="16"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="D406" s="15"/>
+      <c r="M406" s="16"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="D407" s="15"/>
+      <c r="M407" s="16"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="D408" s="15"/>
+      <c r="M408" s="16"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="D409" s="15"/>
+      <c r="M409" s="16"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="D410" s="15"/>
+      <c r="M410" s="16"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="D411" s="15"/>
+      <c r="M411" s="16"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="D412" s="15"/>
+      <c r="M412" s="16"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="D413" s="15"/>
+      <c r="M413" s="16"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="D414" s="15"/>
+      <c r="M414" s="16"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="D415" s="15"/>
+      <c r="M415" s="16"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="D416" s="15"/>
+      <c r="M416" s="16"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="D417" s="15"/>
+      <c r="M417" s="16"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="D418" s="15"/>
+      <c r="M418" s="16"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="D419" s="15"/>
+      <c r="M419" s="16"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="D420" s="15"/>
+      <c r="M420" s="16"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="D421" s="15"/>
+      <c r="M421" s="16"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="D422" s="15"/>
+      <c r="M422" s="16"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="D423" s="15"/>
+      <c r="M423" s="16"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="D424" s="15"/>
+      <c r="M424" s="16"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="D425" s="15"/>
+      <c r="M425" s="16"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="D426" s="15"/>
+      <c r="M426" s="16"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="D427" s="15"/>
+      <c r="M427" s="16"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="D428" s="15"/>
+      <c r="M428" s="16"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="D429" s="15"/>
+      <c r="M429" s="16"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="D430" s="15"/>
+      <c r="M430" s="16"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="D431" s="15"/>
+      <c r="M431" s="16"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="D432" s="15"/>
+      <c r="M432" s="16"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="D433" s="15"/>
+      <c r="M433" s="16"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="D434" s="15"/>
+      <c r="M434" s="16"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="D435" s="15"/>
+      <c r="M435" s="16"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="D436" s="15"/>
+      <c r="M436" s="16"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="D437" s="15"/>
+      <c r="M437" s="16"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="D438" s="15"/>
+      <c r="M438" s="16"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="D439" s="15"/>
+      <c r="M439" s="16"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="D440" s="15"/>
+      <c r="M440" s="16"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="D441" s="15"/>
+      <c r="M441" s="16"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="D442" s="15"/>
+      <c r="M442" s="16"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="D443" s="15"/>
+      <c r="M443" s="16"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="D444" s="15"/>
+      <c r="M444" s="16"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="D445" s="15"/>
+      <c r="M445" s="16"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="D446" s="15"/>
+      <c r="M446" s="16"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="D447" s="15"/>
+      <c r="M447" s="16"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="D448" s="15"/>
+      <c r="M448" s="16"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="D449" s="15"/>
+      <c r="M449" s="16"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="D450" s="15"/>
+      <c r="M450" s="16"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="D451" s="15"/>
+      <c r="M451" s="16"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="D452" s="15"/>
+      <c r="M452" s="16"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="D453" s="15"/>
+      <c r="M453" s="16"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="D454" s="15"/>
+      <c r="M454" s="16"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="D455" s="15"/>
+      <c r="M455" s="16"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="D456" s="15"/>
+      <c r="M456" s="16"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="D457" s="15"/>
+      <c r="M457" s="16"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="D458" s="15"/>
+      <c r="M458" s="16"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="D459" s="15"/>
+      <c r="M459" s="16"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="D460" s="15"/>
+      <c r="M460" s="16"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="D461" s="15"/>
+      <c r="M461" s="16"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="D462" s="15"/>
+      <c r="M462" s="16"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="D463" s="15"/>
+      <c r="M463" s="16"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="D464" s="15"/>
+      <c r="M464" s="16"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="D465" s="15"/>
+      <c r="M465" s="16"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="D466" s="15"/>
+      <c r="M466" s="16"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="D467" s="15"/>
+      <c r="M467" s="16"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="D468" s="15"/>
+      <c r="M468" s="16"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="D469" s="15"/>
+      <c r="M469" s="16"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="D470" s="15"/>
+      <c r="M470" s="16"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="D471" s="15"/>
+      <c r="M471" s="16"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="D472" s="15"/>
+      <c r="M472" s="16"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="D473" s="15"/>
+      <c r="M473" s="16"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="D474" s="15"/>
+      <c r="M474" s="16"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="D475" s="15"/>
+      <c r="M475" s="16"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="D476" s="15"/>
+      <c r="M476" s="16"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="D477" s="15"/>
+      <c r="M477" s="16"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="D478" s="15"/>
+      <c r="M478" s="16"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="D479" s="15"/>
+      <c r="M479" s="16"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="D480" s="15"/>
+      <c r="M480" s="16"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="D481" s="15"/>
+      <c r="M481" s="16"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="D482" s="15"/>
+      <c r="M482" s="16"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="D483" s="15"/>
+      <c r="M483" s="16"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="D484" s="15"/>
+      <c r="M484" s="16"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="D485" s="15"/>
+      <c r="M485" s="16"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="D486" s="15"/>
+      <c r="M486" s="16"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="D487" s="15"/>
+      <c r="M487" s="16"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="D488" s="15"/>
+      <c r="M488" s="16"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="D489" s="15"/>
+      <c r="M489" s="16"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="D490" s="15"/>
+      <c r="M490" s="16"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="D491" s="15"/>
+      <c r="M491" s="16"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="D492" s="15"/>
+      <c r="M492" s="16"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="D493" s="15"/>
+      <c r="M493" s="16"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="D494" s="15"/>
+      <c r="M494" s="16"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="D495" s="15"/>
+      <c r="M495" s="16"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="D496" s="15"/>
+      <c r="M496" s="16"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="D497" s="15"/>
+      <c r="M497" s="16"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="D498" s="15"/>
+      <c r="M498" s="16"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="D499" s="15"/>
+      <c r="M499" s="16"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="D500" s="15"/>
+      <c r="M500" s="16"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="D501" s="15"/>
+      <c r="M501" s="16"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="D502" s="15"/>
+      <c r="M502" s="16"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="D503" s="15"/>
+      <c r="M503" s="16"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="D504" s="15"/>
+      <c r="M504" s="16"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="D505" s="15"/>
+      <c r="M505" s="16"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="D506" s="15"/>
+      <c r="M506" s="16"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="D507" s="15"/>
+      <c r="M507" s="16"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="D508" s="15"/>
+      <c r="M508" s="16"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="D509" s="15"/>
+      <c r="M509" s="16"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="D510" s="15"/>
+      <c r="M510" s="16"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="D511" s="15"/>
+      <c r="M511" s="16"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="D512" s="15"/>
+      <c r="M512" s="16"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="D513" s="15"/>
+      <c r="M513" s="16"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="D514" s="15"/>
+      <c r="M514" s="16"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="D515" s="15"/>
+      <c r="M515" s="16"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="D516" s="15"/>
+      <c r="M516" s="16"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="D517" s="15"/>
+      <c r="M517" s="16"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="D518" s="15"/>
+      <c r="M518" s="16"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="D519" s="15"/>
+      <c r="M519" s="16"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="D520" s="15"/>
+      <c r="M520" s="16"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="D521" s="15"/>
+      <c r="M521" s="16"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="D522" s="15"/>
+      <c r="M522" s="16"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="D523" s="15"/>
+      <c r="M523" s="16"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="D524" s="15"/>
+      <c r="M524" s="16"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="D525" s="15"/>
+      <c r="M525" s="16"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="D526" s="15"/>
+      <c r="M526" s="16"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="D527" s="15"/>
+      <c r="M527" s="16"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="D528" s="15"/>
+      <c r="M528" s="16"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="D529" s="15"/>
+      <c r="M529" s="16"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="D530" s="15"/>
+      <c r="M530" s="16"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="D531" s="15"/>
+      <c r="M531" s="16"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="D532" s="15"/>
+      <c r="M532" s="16"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="D533" s="15"/>
+      <c r="M533" s="16"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="D534" s="15"/>
+      <c r="M534" s="16"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="D535" s="15"/>
+      <c r="M535" s="16"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="D536" s="15"/>
+      <c r="M536" s="16"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="D537" s="15"/>
+      <c r="M537" s="16"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="D538" s="15"/>
+      <c r="M538" s="16"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="D539" s="15"/>
+      <c r="M539" s="16"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="D540" s="15"/>
+      <c r="M540" s="16"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="D541" s="15"/>
+      <c r="M541" s="16"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="D542" s="15"/>
+      <c r="M542" s="16"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="D543" s="15"/>
+      <c r="M543" s="16"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="D544" s="15"/>
+      <c r="M544" s="16"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="D545" s="15"/>
+      <c r="M545" s="16"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="D546" s="15"/>
+      <c r="M546" s="16"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="D547" s="15"/>
+      <c r="M547" s="16"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="D548" s="15"/>
+      <c r="M548" s="16"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="D549" s="15"/>
+      <c r="M549" s="16"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="D550" s="15"/>
+      <c r="M550" s="16"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="D551" s="15"/>
+      <c r="M551" s="16"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="D552" s="15"/>
+      <c r="M552" s="16"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="D553" s="15"/>
+      <c r="M553" s="16"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="D554" s="15"/>
+      <c r="M554" s="16"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="D555" s="15"/>
+      <c r="M555" s="16"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="D556" s="15"/>
+      <c r="M556" s="16"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="D557" s="15"/>
+      <c r="M557" s="16"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="D558" s="15"/>
+      <c r="M558" s="16"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="D559" s="15"/>
+      <c r="M559" s="16"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="D560" s="15"/>
+      <c r="M560" s="16"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="D561" s="15"/>
+      <c r="M561" s="16"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="D562" s="15"/>
+      <c r="M562" s="16"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="D563" s="15"/>
+      <c r="M563" s="16"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="D564" s="15"/>
+      <c r="M564" s="16"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="D565" s="15"/>
+      <c r="M565" s="16"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="D566" s="15"/>
+      <c r="M566" s="16"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="D567" s="15"/>
+      <c r="M567" s="16"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="D568" s="15"/>
+      <c r="M568" s="16"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="D569" s="15"/>
+      <c r="M569" s="16"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="D570" s="15"/>
+      <c r="M570" s="16"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="D571" s="15"/>
+      <c r="M571" s="16"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="D572" s="15"/>
+      <c r="M572" s="16"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="D573" s="15"/>
+      <c r="M573" s="16"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="D574" s="15"/>
+      <c r="M574" s="16"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="D575" s="15"/>
+      <c r="M575" s="16"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="D576" s="15"/>
+      <c r="M576" s="16"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="D577" s="15"/>
+      <c r="M577" s="16"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="D578" s="15"/>
+      <c r="M578" s="16"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="D579" s="15"/>
+      <c r="M579" s="16"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="D580" s="15"/>
+      <c r="M580" s="16"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="D581" s="15"/>
+      <c r="M581" s="16"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="D582" s="15"/>
+      <c r="M582" s="16"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="D583" s="15"/>
+      <c r="M583" s="16"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="D584" s="15"/>
+      <c r="M584" s="16"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="D585" s="15"/>
+      <c r="M585" s="16"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="D586" s="15"/>
+      <c r="M586" s="16"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="D587" s="15"/>
+      <c r="M587" s="16"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="D588" s="15"/>
+      <c r="M588" s="16"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="D589" s="15"/>
+      <c r="M589" s="16"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="D590" s="15"/>
+      <c r="M590" s="16"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="D591" s="15"/>
+      <c r="M591" s="16"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="D592" s="15"/>
+      <c r="M592" s="16"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="D593" s="15"/>
+      <c r="M593" s="16"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="D594" s="15"/>
+      <c r="M594" s="16"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="D595" s="15"/>
+      <c r="M595" s="16"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="D596" s="15"/>
+      <c r="M596" s="16"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="D597" s="15"/>
+      <c r="M597" s="16"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="D598" s="15"/>
+      <c r="M598" s="16"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="D599" s="15"/>
+      <c r="M599" s="16"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="D600" s="15"/>
+      <c r="M600" s="16"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="D601" s="15"/>
+      <c r="M601" s="16"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="D602" s="15"/>
+      <c r="M602" s="16"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="D603" s="15"/>
+      <c r="M603" s="16"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="D604" s="15"/>
+      <c r="M604" s="16"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="D605" s="15"/>
+      <c r="M605" s="16"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="D606" s="15"/>
+      <c r="M606" s="16"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="D607" s="15"/>
+      <c r="M607" s="16"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="D608" s="15"/>
+      <c r="M608" s="16"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="D609" s="15"/>
+      <c r="M609" s="16"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="D610" s="15"/>
+      <c r="M610" s="16"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="D611" s="15"/>
+      <c r="M611" s="16"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="D612" s="15"/>
+      <c r="M612" s="16"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="D613" s="15"/>
+      <c r="M613" s="16"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="D614" s="15"/>
+      <c r="M614" s="16"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="D615" s="15"/>
+      <c r="M615" s="16"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="D616" s="15"/>
+      <c r="M616" s="16"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="D617" s="15"/>
+      <c r="M617" s="16"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="D618" s="15"/>
+      <c r="M618" s="16"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="D619" s="15"/>
+      <c r="M619" s="16"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="D620" s="15"/>
+      <c r="M620" s="16"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="D621" s="15"/>
+      <c r="M621" s="16"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="D622" s="15"/>
+      <c r="M622" s="16"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="D623" s="15"/>
+      <c r="M623" s="16"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="D624" s="15"/>
+      <c r="M624" s="16"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="D625" s="15"/>
+      <c r="M625" s="16"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="D626" s="15"/>
+      <c r="M626" s="16"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="D627" s="15"/>
+      <c r="M627" s="16"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="D628" s="15"/>
+      <c r="M628" s="16"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="D629" s="15"/>
+      <c r="M629" s="16"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="D630" s="15"/>
+      <c r="M630" s="16"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="D631" s="15"/>
+      <c r="M631" s="16"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="D632" s="15"/>
+      <c r="M632" s="16"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="D633" s="15"/>
+      <c r="M633" s="16"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="D634" s="15"/>
+      <c r="M634" s="16"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="D635" s="15"/>
+      <c r="M635" s="16"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="D636" s="15"/>
+      <c r="M636" s="16"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="D637" s="15"/>
+      <c r="M637" s="16"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="D638" s="15"/>
+      <c r="M638" s="16"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="D639" s="15"/>
+      <c r="M639" s="16"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="D640" s="15"/>
+      <c r="M640" s="16"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="D641" s="15"/>
+      <c r="M641" s="16"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="D642" s="15"/>
+      <c r="M642" s="16"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="D643" s="15"/>
+      <c r="M643" s="16"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="D644" s="15"/>
+      <c r="M644" s="16"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="D645" s="15"/>
+      <c r="M645" s="16"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="D646" s="15"/>
+      <c r="M646" s="16"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="D647" s="15"/>
+      <c r="M647" s="16"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="D648" s="15"/>
+      <c r="M648" s="16"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="D649" s="15"/>
+      <c r="M649" s="16"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="D650" s="15"/>
+      <c r="M650" s="16"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="D651" s="15"/>
+      <c r="M651" s="16"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="D652" s="15"/>
+      <c r="M652" s="16"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="D653" s="15"/>
+      <c r="M653" s="16"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="D654" s="15"/>
+      <c r="M654" s="16"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="D655" s="15"/>
+      <c r="M655" s="16"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="D656" s="15"/>
+      <c r="M656" s="16"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="D657" s="15"/>
+      <c r="M657" s="16"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="D658" s="15"/>
+      <c r="M658" s="16"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="D659" s="15"/>
+      <c r="M659" s="16"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="D660" s="15"/>
+      <c r="M660" s="16"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="D661" s="15"/>
+      <c r="M661" s="16"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="D662" s="15"/>
+      <c r="M662" s="16"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="D663" s="15"/>
+      <c r="M663" s="16"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="D664" s="15"/>
+      <c r="M664" s="16"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="D665" s="15"/>
+      <c r="M665" s="16"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="D666" s="15"/>
+      <c r="M666" s="16"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="D667" s="15"/>
+      <c r="M667" s="16"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="D668" s="15"/>
+      <c r="M668" s="16"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="D669" s="15"/>
+      <c r="M669" s="16"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="D670" s="15"/>
+      <c r="M670" s="16"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="D671" s="15"/>
+      <c r="M671" s="16"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="D672" s="15"/>
+      <c r="M672" s="16"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="D673" s="15"/>
+      <c r="M673" s="16"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="D674" s="15"/>
+      <c r="M674" s="16"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="D675" s="15"/>
+      <c r="M675" s="16"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="D676" s="15"/>
+      <c r="M676" s="16"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="D677" s="15"/>
+      <c r="M677" s="16"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="D678" s="15"/>
+      <c r="M678" s="16"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="D679" s="15"/>
+      <c r="M679" s="16"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="D680" s="15"/>
+      <c r="M680" s="16"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="D681" s="15"/>
+      <c r="M681" s="16"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="D682" s="15"/>
+      <c r="M682" s="16"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="D683" s="15"/>
+      <c r="M683" s="16"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="D684" s="15"/>
+      <c r="M684" s="16"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="D685" s="15"/>
+      <c r="M685" s="16"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="D686" s="15"/>
+      <c r="M686" s="16"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="D687" s="15"/>
+      <c r="M687" s="16"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="D688" s="15"/>
+      <c r="M688" s="16"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="D689" s="15"/>
+      <c r="M689" s="16"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="D690" s="15"/>
+      <c r="M690" s="16"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="D691" s="15"/>
+      <c r="M691" s="16"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="D692" s="15"/>
+      <c r="M692" s="16"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="D693" s="15"/>
+      <c r="M693" s="16"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="D694" s="15"/>
+      <c r="M694" s="16"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="D695" s="15"/>
+      <c r="M695" s="16"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="D696" s="15"/>
+      <c r="M696" s="16"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="D697" s="15"/>
+      <c r="M697" s="16"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="D698" s="15"/>
+      <c r="M698" s="16"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="D699" s="15"/>
+      <c r="M699" s="16"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="D700" s="15"/>
+      <c r="M700" s="16"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="D701" s="15"/>
+      <c r="M701" s="16"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="D702" s="15"/>
+      <c r="M702" s="16"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="D703" s="15"/>
+      <c r="M703" s="16"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="D704" s="15"/>
+      <c r="M704" s="16"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="D705" s="15"/>
+      <c r="M705" s="16"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="D706" s="15"/>
+      <c r="M706" s="16"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="D707" s="15"/>
+      <c r="M707" s="16"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="D708" s="15"/>
+      <c r="M708" s="16"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="D709" s="15"/>
+      <c r="M709" s="16"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="D710" s="15"/>
+      <c r="M710" s="16"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="D711" s="15"/>
+      <c r="M711" s="16"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="D712" s="15"/>
+      <c r="M712" s="16"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="D713" s="15"/>
+      <c r="M713" s="16"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="D714" s="15"/>
+      <c r="M714" s="16"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="D715" s="15"/>
+      <c r="M715" s="16"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="D716" s="15"/>
+      <c r="M716" s="16"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="D717" s="15"/>
+      <c r="M717" s="16"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="D718" s="15"/>
+      <c r="M718" s="16"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="D719" s="15"/>
+      <c r="M719" s="16"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="D720" s="15"/>
+      <c r="M720" s="16"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="D721" s="15"/>
+      <c r="M721" s="16"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="D722" s="15"/>
+      <c r="M722" s="16"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="D723" s="15"/>
+      <c r="M723" s="16"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="D724" s="15"/>
+      <c r="M724" s="16"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="D725" s="15"/>
+      <c r="M725" s="16"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="D726" s="15"/>
+      <c r="M726" s="16"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="D727" s="15"/>
+      <c r="M727" s="16"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="D728" s="15"/>
+      <c r="M728" s="16"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="D729" s="15"/>
+      <c r="M729" s="16"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="D730" s="15"/>
+      <c r="M730" s="16"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="D731" s="15"/>
+      <c r="M731" s="16"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="D732" s="15"/>
+      <c r="M732" s="16"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="D733" s="15"/>
+      <c r="M733" s="16"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="D734" s="15"/>
+      <c r="M734" s="16"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="D735" s="15"/>
+      <c r="M735" s="16"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="D736" s="15"/>
+      <c r="M736" s="16"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="D737" s="15"/>
+      <c r="M737" s="16"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="D738" s="15"/>
+      <c r="M738" s="16"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="D739" s="15"/>
+      <c r="M739" s="16"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="D740" s="15"/>
+      <c r="M740" s="16"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="D741" s="15"/>
+      <c r="M741" s="16"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="D742" s="15"/>
+      <c r="M742" s="16"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="D743" s="15"/>
+      <c r="M743" s="16"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="D744" s="15"/>
+      <c r="M744" s="16"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="D745" s="15"/>
+      <c r="M745" s="16"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="D746" s="15"/>
+      <c r="M746" s="16"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="D747" s="15"/>
+      <c r="M747" s="16"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="D748" s="15"/>
+      <c r="M748" s="16"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="D749" s="15"/>
+      <c r="M749" s="16"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="D750" s="15"/>
+      <c r="M750" s="16"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="D751" s="15"/>
+      <c r="M751" s="16"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="D752" s="15"/>
+      <c r="M752" s="16"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="D753" s="15"/>
+      <c r="M753" s="16"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="D754" s="15"/>
+      <c r="M754" s="16"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="D755" s="15"/>
+      <c r="M755" s="16"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="D756" s="15"/>
+      <c r="M756" s="16"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="D757" s="15"/>
+      <c r="M757" s="16"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="D758" s="15"/>
+      <c r="M758" s="16"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="D759" s="15"/>
+      <c r="M759" s="16"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="D760" s="15"/>
+      <c r="M760" s="16"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="D761" s="15"/>
+      <c r="M761" s="16"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="D762" s="15"/>
+      <c r="M762" s="16"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="D763" s="15"/>
+      <c r="M763" s="16"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="D764" s="15"/>
+      <c r="M764" s="16"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="D765" s="15"/>
+      <c r="M765" s="16"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="D766" s="15"/>
+      <c r="M766" s="16"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="D767" s="15"/>
+      <c r="M767" s="16"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="D768" s="15"/>
+      <c r="M768" s="16"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="D769" s="15"/>
+      <c r="M769" s="16"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="D770" s="15"/>
+      <c r="M770" s="16"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="D771" s="15"/>
+      <c r="M771" s="16"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="D772" s="15"/>
+      <c r="M772" s="16"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="D773" s="15"/>
+      <c r="M773" s="16"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="D774" s="15"/>
+      <c r="M774" s="16"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="D775" s="15"/>
+      <c r="M775" s="16"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="D776" s="15"/>
+      <c r="M776" s="16"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="D777" s="15"/>
+      <c r="M777" s="16"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="D778" s="15"/>
+      <c r="M778" s="16"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="D779" s="15"/>
+      <c r="M779" s="16"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="D780" s="15"/>
+      <c r="M780" s="16"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="D781" s="15"/>
+      <c r="M781" s="16"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="D782" s="15"/>
+      <c r="M782" s="16"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="D783" s="15"/>
+      <c r="M783" s="16"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="D784" s="15"/>
+      <c r="M784" s="16"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="D785" s="15"/>
+      <c r="M785" s="16"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="D786" s="15"/>
+      <c r="M786" s="16"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="D787" s="15"/>
+      <c r="M787" s="16"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="D788" s="15"/>
+      <c r="M788" s="16"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="D789" s="15"/>
+      <c r="M789" s="16"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="D790" s="15"/>
+      <c r="M790" s="16"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="D791" s="15"/>
+      <c r="M791" s="16"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="D792" s="15"/>
+      <c r="M792" s="16"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="D793" s="15"/>
+      <c r="M793" s="16"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="D794" s="15"/>
+      <c r="M794" s="16"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="D795" s="15"/>
+      <c r="M795" s="16"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="D796" s="15"/>
+      <c r="M796" s="16"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="D797" s="15"/>
+      <c r="M797" s="16"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="D798" s="15"/>
+      <c r="M798" s="16"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="D799" s="15"/>
+      <c r="M799" s="16"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="D800" s="15"/>
+      <c r="M800" s="16"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="D801" s="15"/>
+      <c r="M801" s="16"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="D802" s="15"/>
+      <c r="M802" s="16"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="D803" s="15"/>
+      <c r="M803" s="16"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="D804" s="15"/>
+      <c r="M804" s="16"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="D805" s="15"/>
+      <c r="M805" s="16"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="D806" s="15"/>
+      <c r="M806" s="16"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="D807" s="15"/>
+      <c r="M807" s="16"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="D808" s="15"/>
+      <c r="M808" s="16"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="D809" s="15"/>
+      <c r="M809" s="16"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="D810" s="15"/>
+      <c r="M810" s="16"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="D811" s="15"/>
+      <c r="M811" s="16"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="D812" s="15"/>
+      <c r="M812" s="16"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="D813" s="15"/>
+      <c r="M813" s="16"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="D814" s="15"/>
+      <c r="M814" s="16"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="D815" s="15"/>
+      <c r="M815" s="16"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="D816" s="15"/>
+      <c r="M816" s="16"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="D817" s="15"/>
+      <c r="M817" s="16"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="D818" s="15"/>
+      <c r="M818" s="16"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="D819" s="15"/>
+      <c r="M819" s="16"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="D820" s="15"/>
+      <c r="M820" s="16"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="D821" s="15"/>
+      <c r="M821" s="16"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="D822" s="15"/>
+      <c r="M822" s="16"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="D823" s="15"/>
+      <c r="M823" s="16"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="D824" s="15"/>
+      <c r="M824" s="16"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="D825" s="15"/>
+      <c r="M825" s="16"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="D826" s="15"/>
+      <c r="M826" s="16"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="D827" s="15"/>
+      <c r="M827" s="16"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="D828" s="15"/>
+      <c r="M828" s="16"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="D829" s="15"/>
+      <c r="M829" s="16"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="D830" s="15"/>
+      <c r="M830" s="16"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="D831" s="15"/>
+      <c r="M831" s="16"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="D832" s="15"/>
+      <c r="M832" s="16"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="D833" s="15"/>
+      <c r="M833" s="16"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="D834" s="15"/>
+      <c r="M834" s="16"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="D835" s="15"/>
+      <c r="M835" s="16"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="D836" s="15"/>
+      <c r="M836" s="16"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="D837" s="15"/>
+      <c r="M837" s="16"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="D838" s="15"/>
+      <c r="M838" s="16"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="D839" s="15"/>
+      <c r="M839" s="16"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="D840" s="15"/>
+      <c r="M840" s="16"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="D841" s="15"/>
+      <c r="M841" s="16"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="D842" s="15"/>
+      <c r="M842" s="16"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="D843" s="15"/>
+      <c r="M843" s="16"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="D844" s="15"/>
+      <c r="M844" s="16"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="D845" s="15"/>
+      <c r="M845" s="16"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="D846" s="15"/>
+      <c r="M846" s="16"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="D847" s="15"/>
+      <c r="M847" s="16"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="D848" s="15"/>
+      <c r="M848" s="16"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="D849" s="15"/>
+      <c r="M849" s="16"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="D850" s="15"/>
+      <c r="M850" s="16"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="D851" s="15"/>
+      <c r="M851" s="16"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="D852" s="15"/>
+      <c r="M852" s="16"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="D853" s="15"/>
+      <c r="M853" s="16"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="D854" s="15"/>
+      <c r="M854" s="16"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="D855" s="15"/>
+      <c r="M855" s="16"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="D856" s="15"/>
+      <c r="M856" s="16"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="D857" s="15"/>
+      <c r="M857" s="16"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="D858" s="15"/>
+      <c r="M858" s="16"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="D859" s="15"/>
+      <c r="M859" s="16"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="D860" s="15"/>
+      <c r="M860" s="16"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="D861" s="15"/>
+      <c r="M861" s="16"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="D862" s="15"/>
+      <c r="M862" s="16"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="D863" s="15"/>
+      <c r="M863" s="16"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="D864" s="15"/>
+      <c r="M864" s="16"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="D865" s="15"/>
+      <c r="M865" s="16"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="D866" s="15"/>
+      <c r="M866" s="16"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="D867" s="15"/>
+      <c r="M867" s="16"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="D868" s="15"/>
+      <c r="M868" s="16"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="D869" s="15"/>
+      <c r="M869" s="16"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="D870" s="15"/>
+      <c r="M870" s="16"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="D871" s="15"/>
+      <c r="M871" s="16"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="D872" s="15"/>
+      <c r="M872" s="16"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="D873" s="15"/>
+      <c r="M873" s="16"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="D874" s="15"/>
+      <c r="M874" s="16"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="D875" s="15"/>
+      <c r="M875" s="16"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="D876" s="15"/>
+      <c r="M876" s="16"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="D877" s="15"/>
+      <c r="M877" s="16"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="D878" s="15"/>
+      <c r="M878" s="16"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="D879" s="15"/>
+      <c r="M879" s="16"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="D880" s="15"/>
+      <c r="M880" s="16"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="D881" s="15"/>
+      <c r="M881" s="16"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="D882" s="15"/>
+      <c r="M882" s="16"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="D883" s="15"/>
+      <c r="M883" s="16"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="D884" s="15"/>
+      <c r="M884" s="16"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="D885" s="15"/>
+      <c r="M885" s="16"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="D886" s="15"/>
+      <c r="M886" s="16"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="D887" s="15"/>
+      <c r="M887" s="16"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="D888" s="15"/>
+      <c r="M888" s="16"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="D889" s="15"/>
+      <c r="M889" s="16"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="D890" s="15"/>
+      <c r="M890" s="16"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="D891" s="15"/>
+      <c r="M891" s="16"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="D892" s="15"/>
+      <c r="M892" s="16"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="D893" s="15"/>
+      <c r="M893" s="16"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="D894" s="15"/>
+      <c r="M894" s="16"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="D895" s="15"/>
+      <c r="M895" s="16"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="D896" s="15"/>
+      <c r="M896" s="16"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="D897" s="15"/>
+      <c r="M897" s="16"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="D898" s="15"/>
+      <c r="M898" s="16"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="D899" s="15"/>
+      <c r="M899" s="16"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="D900" s="15"/>
+      <c r="M900" s="16"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="D901" s="15"/>
+      <c r="M901" s="16"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="D902" s="15"/>
+      <c r="M902" s="16"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="D903" s="15"/>
+      <c r="M903" s="16"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="D904" s="15"/>
+      <c r="M904" s="16"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="D905" s="15"/>
+      <c r="M905" s="16"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="D906" s="15"/>
+      <c r="M906" s="16"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="D907" s="15"/>
+      <c r="M907" s="16"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="D908" s="15"/>
+      <c r="M908" s="16"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="D909" s="15"/>
+      <c r="M909" s="16"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="D910" s="15"/>
+      <c r="M910" s="16"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="D911" s="15"/>
+      <c r="M911" s="16"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="D912" s="15"/>
+      <c r="M912" s="16"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="D913" s="15"/>
+      <c r="M913" s="16"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="D914" s="15"/>
+      <c r="M914" s="16"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="D915" s="15"/>
+      <c r="M915" s="16"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="D916" s="15"/>
+      <c r="M916" s="16"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="D917" s="15"/>
+      <c r="M917" s="16"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="D918" s="15"/>
+      <c r="M918" s="16"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="D919" s="15"/>
+      <c r="M919" s="16"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="D920" s="15"/>
+      <c r="M920" s="16"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="D921" s="15"/>
+      <c r="M921" s="16"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="D922" s="15"/>
+      <c r="M922" s="16"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="D923" s="15"/>
+      <c r="M923" s="16"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="D924" s="15"/>
+      <c r="M924" s="16"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="D925" s="15"/>
+      <c r="M925" s="16"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="D926" s="15"/>
+      <c r="M926" s="16"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="D927" s="15"/>
+      <c r="M927" s="16"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="D928" s="15"/>
+      <c r="M928" s="16"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="D929" s="15"/>
+      <c r="M929" s="16"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="D930" s="15"/>
+      <c r="M930" s="16"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="D931" s="15"/>
+      <c r="M931" s="16"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="D932" s="15"/>
+      <c r="M932" s="16"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="D933" s="15"/>
+      <c r="M933" s="16"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="D934" s="15"/>
+      <c r="M934" s="16"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="D935" s="15"/>
+      <c r="M935" s="16"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="D936" s="15"/>
+      <c r="M936" s="16"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="D937" s="15"/>
+      <c r="M937" s="16"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="D938" s="15"/>
+      <c r="M938" s="16"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="D939" s="15"/>
+      <c r="M939" s="16"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="D940" s="15"/>
+      <c r="M940" s="16"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="D941" s="15"/>
+      <c r="M941" s="16"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="D942" s="15"/>
+      <c r="M942" s="16"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="D943" s="15"/>
+      <c r="M943" s="16"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="D944" s="15"/>
+      <c r="M944" s="16"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="D945" s="15"/>
+      <c r="M945" s="16"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="D946" s="15"/>
+      <c r="M946" s="16"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="D947" s="15"/>
+      <c r="M947" s="16"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="D948" s="15"/>
+      <c r="M948" s="16"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="D949" s="15"/>
+      <c r="M949" s="16"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="D950" s="15"/>
+      <c r="M950" s="16"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="D951" s="15"/>
+      <c r="M951" s="16"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="D952" s="15"/>
+      <c r="M952" s="16"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="D953" s="15"/>
+      <c r="M953" s="16"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="D954" s="15"/>
+      <c r="M954" s="16"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="D955" s="15"/>
+      <c r="M955" s="16"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="D956" s="15"/>
+      <c r="M956" s="16"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="D957" s="15"/>
+      <c r="M957" s="16"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="D958" s="15"/>
+      <c r="M958" s="16"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="D959" s="15"/>
+      <c r="M959" s="16"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="D960" s="15"/>
+      <c r="M960" s="16"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="D961" s="15"/>
+      <c r="M961" s="16"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="D962" s="15"/>
+      <c r="M962" s="16"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="D963" s="15"/>
+      <c r="M963" s="16"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="D964" s="15"/>
+      <c r="M964" s="16"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="D965" s="15"/>
+      <c r="M965" s="16"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="D966" s="15"/>
+      <c r="M966" s="16"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="D967" s="15"/>
+      <c r="M967" s="16"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="D968" s="15"/>
+      <c r="M968" s="16"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="D969" s="15"/>
+      <c r="M969" s="16"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="D970" s="15"/>
+      <c r="M970" s="16"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="D971" s="15"/>
+      <c r="M971" s="16"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="D972" s="15"/>
+      <c r="M972" s="16"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="D973" s="15"/>
+      <c r="M973" s="16"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="D974" s="15"/>
+      <c r="M974" s="16"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="D975" s="15"/>
+      <c r="M975" s="16"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="D976" s="15"/>
+      <c r="M976" s="16"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="D977" s="15"/>
+      <c r="M977" s="16"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="D978" s="15"/>
+      <c r="M978" s="16"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="D979" s="15"/>
+      <c r="M979" s="16"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="D980" s="15"/>
+      <c r="M980" s="16"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="D981" s="15"/>
+      <c r="M981" s="16"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="D982" s="15"/>
+      <c r="M982" s="16"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="D983" s="15"/>
+      <c r="M983" s="16"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="D984" s="15"/>
+      <c r="M984" s="16"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="D985" s="15"/>
+      <c r="M985" s="16"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="D986" s="15"/>
+      <c r="M986" s="16"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="D987" s="15"/>
+      <c r="M987" s="16"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="D988" s="15"/>
+      <c r="M988" s="16"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="D989" s="15"/>
+      <c r="M989" s="16"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="D990" s="15"/>
+      <c r="M990" s="16"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="D991" s="15"/>
+      <c r="M991" s="16"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="D992" s="15"/>
+      <c r="M992" s="16"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="D993" s="15"/>
+      <c r="M993" s="16"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="D994" s="15"/>
+      <c r="M994" s="16"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="D995" s="15"/>
+      <c r="M995" s="16"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="D996" s="15"/>
+      <c r="M996" s="16"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="D997" s="15"/>
+      <c r="M997" s="16"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="D998" s="15"/>
+      <c r="M998" s="16"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="D999" s="15"/>
+      <c r="M999" s="16"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="D1000" s="15"/>
+      <c r="M1000" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>